--- a/TestData/JTPS-DEVQA/ProductCategories.xlsx
+++ b/TestData/JTPS-DEVQA/ProductCategories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="114">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -268,9 +268,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>btn_No</t>
-  </si>
-  <si>
     <t>elm_ErrorDescriptionrequired</t>
   </si>
   <si>
@@ -280,9 +277,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>btn_Cancel</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -313,27 +307,12 @@
     <t>scrollandclick</t>
   </si>
   <si>
-    <t>elm_Confirmationdialog</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Au</t>
-  </si>
-  <si>
-    <t>allrows,value^Au,Description^Automation,short description^Automation</t>
-  </si>
-  <si>
-    <t>allrows,value^Au</t>
-  </si>
-  <si>
-    <t>English,French,Spanish</t>
-  </si>
-  <si>
     <t>Field_Name1</t>
   </si>
   <si>
@@ -356,6 +335,27 @@
   </si>
   <si>
     <t>pJTPS</t>
+  </si>
+  <si>
+    <t>English,French,Spanish,Russian</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Aut</t>
+  </si>
+  <si>
+    <t>elm_Changessavedtothedatabase</t>
+  </si>
+  <si>
+    <t>allrows,value^Aut,Description^Automation,short description^Automation</t>
+  </si>
+  <si>
+    <t>aut</t>
+  </si>
+  <si>
+    <t>allrows,value^Aut</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,6 +618,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -921,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:X901"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,22 +988,22 @@
         <v>13</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="Q1" s="24" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="V1" s="18" t="s">
         <v>9</v>
@@ -1019,7 +1023,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="20" t="s">
@@ -1049,7 +1053,7 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
-      <c r="P2" s="36"/>
+      <c r="P2" s="27"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="36"/>
       <c r="S2" s="36"/>
@@ -1067,7 +1071,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20" t="s">
@@ -1087,17 +1091,19 @@
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="17"/>
+      <c r="L3" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="M3" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N3" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" s="30" t="s">
         <v>29</v>
       </c>
+      <c r="P3" s="30"/>
       <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1109,7 +1115,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>19</v>
@@ -1126,10 +1132,10 @@
         <v>3</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O4" s="26"/>
       <c r="P4" s="30"/>
@@ -1144,7 +1150,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>19</v>
@@ -1157,17 +1163,19 @@
       </c>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
-      <c r="L5" s="25"/>
+      <c r="L5" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="M5" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" s="30" t="s">
         <v>29</v>
       </c>
+      <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1196,10 +1204,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O6" s="26"/>
       <c r="P6" s="30"/>
@@ -1231,15 +1239,15 @@
         <v>61</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1266,10 +1274,10 @@
       <c r="K8" s="26"/>
       <c r="L8" s="17"/>
       <c r="M8" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O8" s="26" t="s">
         <v>35</v>
@@ -1282,9 +1290,7 @@
     <row r="9" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
-        <v>95</v>
-      </c>
+      <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
         <v>19</v>
@@ -1299,18 +1305,18 @@
         <v>21</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
       <c r="L9" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O9" s="26" t="s">
         <v>35</v>
@@ -1345,15 +1351,15 @@
         <v>61</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" s="33" t="s">
         <v>40</v>
       </c>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
@@ -1379,13 +1385,13 @@
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O11" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P11" s="33" t="s">
         <v>42</v>
@@ -1417,10 +1423,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N12" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="31"/>
@@ -1451,10 +1457,10 @@
         <v>45</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O13" s="26" t="s">
         <v>35</v>
@@ -1488,13 +1494,13 @@
         <v>49</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O14" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P14" s="30" t="s">
         <v>48</v>
@@ -1526,13 +1532,13 @@
         <v>49</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O15" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>51</v>
@@ -1564,13 +1570,13 @@
         <v>49</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P16" s="30" t="s">
         <v>52</v>
@@ -1602,13 +1608,13 @@
         <v>49</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P17" s="13" t="s">
         <v>53</v>
@@ -1637,16 +1643,16 @@
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N18" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O18" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>53</v>
@@ -1678,13 +1684,13 @@
         <v>49</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O19" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>56</v>
@@ -1716,13 +1722,13 @@
         <v>49</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O20" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P20" s="30" t="s">
         <v>57</v>
@@ -1752,13 +1758,13 @@
         <v>49</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N21" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O21" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P21" s="30" t="s">
         <v>58</v>
@@ -1787,16 +1793,16 @@
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="35" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="M22" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N22" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O22" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>53</v>
@@ -1828,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="31"/>
@@ -1862,13 +1868,13 @@
         <v>60</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N24" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O24" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>53</v>
@@ -1900,13 +1906,13 @@
         <v>61</v>
       </c>
       <c r="M25" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N25" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P25" s="14" t="s">
         <v>52</v>
@@ -1938,13 +1944,13 @@
         <v>64</v>
       </c>
       <c r="M26" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N26" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P26" s="14" t="s">
         <v>63</v>
@@ -1972,10 +1978,10 @@
       <c r="K27" s="26"/>
       <c r="L27" s="35"/>
       <c r="M27" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N27" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O27" s="12"/>
       <c r="P27" s="14"/>
@@ -2006,13 +2012,13 @@
         <v>61</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N28" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O28" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P28" s="30" t="s">
         <v>52</v>
@@ -2044,13 +2050,13 @@
         <v>69</v>
       </c>
       <c r="M29" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N29" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O29" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P29" s="30" t="s">
         <v>68</v>
@@ -2079,16 +2085,16 @@
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="35" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N30" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O30" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P30" s="30" t="s">
         <v>70</v>
@@ -2120,13 +2126,13 @@
         <v>69</v>
       </c>
       <c r="M31" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N31" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O31" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P31" s="30" t="s">
         <v>72</v>
@@ -2158,13 +2164,13 @@
         <v>61</v>
       </c>
       <c r="M32" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O32" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P32" s="30" t="s">
         <v>48</v>
@@ -2179,7 +2185,7 @@
         <v>19</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>19</v>
@@ -2193,20 +2199,18 @@
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
       <c r="L33" s="35" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="M33" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N33" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O33" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="P33" s="30" t="s">
-        <v>70</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="P33" s="30"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
@@ -2217,7 +2221,7 @@
         <v>19</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>19</v>
@@ -2226,24 +2230,24 @@
         <v>21</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J34" s="26"/>
       <c r="K34" s="26"/>
       <c r="L34" s="35" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="M34" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N34" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O34" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P34" s="30" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -2255,7 +2259,7 @@
         <v>19</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>19</v>
@@ -2266,31 +2270,27 @@
       <c r="I35" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="17" t="s">
-        <v>96</v>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="M35" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N35" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O35" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="P35" s="31" t="s">
-        <v>38</v>
+        <v>106</v>
+      </c>
+      <c r="O35" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P35" s="30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
       <c r="E36" s="20" t="s">
@@ -2308,16 +2308,16 @@
       <c r="I36" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="5" t="s">
-        <v>45</v>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="M36" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N36" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O36" s="26" t="s">
         <v>35</v>
@@ -2326,19 +2326,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>95</v>
-      </c>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="34"/>
       <c r="E37" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>19</v>
@@ -2347,27 +2343,27 @@
         <v>21</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="J37" s="26"/>
       <c r="K37" s="26"/>
-      <c r="L37" s="25" t="s">
-        <v>103</v>
+      <c r="L37" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="M37" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N37" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O37" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="P37" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="O37" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P37" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="34"/>
@@ -2376,7 +2372,7 @@
         <v>19</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>19</v>
@@ -2385,24 +2381,24 @@
         <v>21</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
-      <c r="L38" s="35" t="s">
-        <v>61</v>
+      <c r="L38" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="M38" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N38" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O38" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P38" s="30" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -2414,7 +2410,7 @@
         <v>19</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>19</v>
@@ -2428,19 +2424,19 @@
       <c r="J39" s="26"/>
       <c r="K39" s="26"/>
       <c r="L39" s="35" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="M39" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N39" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O39" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P39" s="30" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -2465,17 +2461,17 @@
       </c>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
-      <c r="L40" s="35" t="s">
-        <v>102</v>
+      <c r="L40" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="M40" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N40" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O40" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P40" s="30" t="s">
         <v>70</v>
@@ -2490,7 +2486,7 @@
         <v>19</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>19</v>
@@ -2507,16 +2503,16 @@
         <v>79</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N41" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O41" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P41" s="30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -2528,7 +2524,7 @@
         <v>19</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>19</v>
@@ -2542,22 +2538,22 @@
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
       <c r="L42" s="35" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="M42" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N42" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O42" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P42" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="34"/>
@@ -2566,7 +2562,7 @@
         <v>19</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>19</v>
@@ -2575,27 +2571,27 @@
         <v>21</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J43" s="26"/>
       <c r="K43" s="26"/>
       <c r="L43" s="35" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="M43" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N43" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O43" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P43" s="30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="34"/>
@@ -2604,7 +2600,7 @@
         <v>19</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G44" s="21" t="s">
         <v>19</v>
@@ -2613,24 +2609,24 @@
         <v>21</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J44" s="26"/>
       <c r="K44" s="26"/>
       <c r="L44" s="35" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="M44" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N44" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O44" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P44" s="30" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -2642,7 +2638,7 @@
         <v>19</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>19</v>
@@ -2655,20 +2651,20 @@
       </c>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
-      <c r="L45" s="25" t="s">
+      <c r="L45" s="35" t="s">
         <v>61</v>
       </c>
       <c r="M45" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N45" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O45" s="26" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="O45" s="29" t="s">
+        <v>95</v>
       </c>
       <c r="P45" s="30" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -2694,13 +2690,13 @@
       <c r="J46" s="32"/>
       <c r="K46" s="32"/>
       <c r="L46" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M46" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N46" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O46" s="26" t="s">
         <v>35</v>
@@ -2735,10 +2731,10 @@
         <v>45</v>
       </c>
       <c r="M47" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N47" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O47" s="26" t="s">
         <v>35</v>
@@ -2773,13 +2769,13 @@
         <v>61</v>
       </c>
       <c r="M48" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N48" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O48" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P48" s="30" t="s">
         <v>52</v>
@@ -2808,16 +2804,16 @@
       <c r="J49" s="26"/>
       <c r="K49" s="26"/>
       <c r="L49" s="25" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="M49" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N49" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O49" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P49" s="30" t="s">
         <v>70</v>
@@ -2849,13 +2845,13 @@
         <v>61</v>
       </c>
       <c r="M50" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N50" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O50" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P50" s="30" t="s">
         <v>48</v>
@@ -2887,16 +2883,16 @@
         <v>49</v>
       </c>
       <c r="M51" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N51" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O51" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P51" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
@@ -2925,16 +2921,16 @@
         <v>49</v>
       </c>
       <c r="M52" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N52" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O52" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P52" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -2963,13 +2959,13 @@
         <v>61</v>
       </c>
       <c r="M53" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N53" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O53" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P53" s="30" t="s">
         <v>42</v>
@@ -2984,7 +2980,7 @@
         <v>19</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>19</v>
@@ -2997,20 +2993,20 @@
       </c>
       <c r="J54" s="26"/>
       <c r="K54" s="26"/>
-      <c r="L54" s="25" t="s">
-        <v>61</v>
+      <c r="L54" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="M54" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N54" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O54" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="P54" s="30" t="s">
-        <v>84</v>
+        <v>35</v>
+      </c>
+      <c r="P54" s="31" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -3035,14 +3031,14 @@
       </c>
       <c r="J55" s="26"/>
       <c r="K55" s="26"/>
-      <c r="L55" s="17" t="s">
-        <v>96</v>
+      <c r="L55" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="M55" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N55" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O55" s="26" t="s">
         <v>35</v>
@@ -3060,7 +3056,7 @@
         <v>19</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>19</v>
@@ -3073,20 +3069,20 @@
       </c>
       <c r="J56" s="26"/>
       <c r="K56" s="26"/>
-      <c r="L56" s="5" t="s">
-        <v>45</v>
+      <c r="L56" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="M56" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N56" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O56" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="P56" s="31" t="s">
-        <v>38</v>
+        <v>106</v>
+      </c>
+      <c r="O56" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P56" s="30" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -3098,7 +3094,7 @@
         <v>19</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>19</v>
@@ -3111,20 +3107,20 @@
       </c>
       <c r="J57" s="26"/>
       <c r="K57" s="26"/>
-      <c r="L57" s="25" t="s">
-        <v>87</v>
+      <c r="L57" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="M57" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N57" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O57" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P57" s="30" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -3136,7 +3132,7 @@
         <v>19</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>19</v>
@@ -3145,25 +3141,23 @@
         <v>21</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J58" s="26"/>
       <c r="K58" s="26"/>
-      <c r="L58" s="35" t="s">
-        <v>61</v>
+      <c r="L58" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="M58" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N58" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O58" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="P58" s="30" t="s">
-        <v>42</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P58" s="29"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
@@ -3174,7 +3168,7 @@
         <v>19</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>19</v>
@@ -3183,22 +3177,24 @@
         <v>21</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J59" s="26"/>
       <c r="K59" s="26"/>
-      <c r="L59" s="25" t="s">
-        <v>83</v>
+      <c r="L59" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="M59" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N59" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O59" s="3"/>
-      <c r="P59" s="26" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="O59" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P59" s="31" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -3210,7 +3206,7 @@
         <v>19</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G60" s="21" t="s">
         <v>19</v>
@@ -3223,20 +3219,20 @@
       </c>
       <c r="J60" s="26"/>
       <c r="K60" s="26"/>
-      <c r="L60" s="25" t="s">
-        <v>83</v>
+      <c r="L60" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="M60" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N60" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O60" s="26" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="P60" s="31" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -3248,7 +3244,7 @@
         <v>19</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>19</v>
@@ -3257,22 +3253,24 @@
         <v>21</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J61" s="26"/>
       <c r="K61" s="26"/>
       <c r="L61" s="25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M61" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N61" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O61" s="26"/>
-      <c r="P61" s="29" t="s">
-        <v>97</v>
+        <v>106</v>
+      </c>
+      <c r="O61" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P61" s="30" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -3284,7 +3282,7 @@
         <v>19</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>19</v>
@@ -3301,16 +3299,16 @@
         <v>61</v>
       </c>
       <c r="M62" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N62" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O62" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P62" s="30" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -3322,7 +3320,7 @@
         <v>19</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" s="21" t="s">
         <v>19</v>
@@ -3331,25 +3329,23 @@
         <v>21</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J63" s="26"/>
       <c r="K63" s="26"/>
-      <c r="L63" s="25" t="s">
-        <v>61</v>
+      <c r="L63" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="M63" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N63" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O63" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="P63" s="30" t="s">
-        <v>84</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O63" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="P63" s="30"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
@@ -3369,22 +3365,24 @@
         <v>21</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J64" s="26"/>
       <c r="K64" s="26"/>
-      <c r="L64" s="25" t="s">
-        <v>89</v>
+      <c r="L64" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="M64" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N64" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O64" s="26"/>
-      <c r="P64" s="29" t="s">
-        <v>97</v>
+        <v>106</v>
+      </c>
+      <c r="O64" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P64" s="30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -3410,13 +3408,13 @@
       <c r="J65" s="26"/>
       <c r="K65" s="26"/>
       <c r="L65" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M65" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N65" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O65" s="26" t="s">
         <v>35</v>
@@ -3451,10 +3449,10 @@
         <v>45</v>
       </c>
       <c r="M66" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N66" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O66" s="26" t="s">
         <v>35</v>
@@ -3472,7 +3470,7 @@
         <v>19</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G67" s="21" t="s">
         <v>19</v>
@@ -3481,21 +3479,21 @@
         <v>21</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J67" s="26"/>
       <c r="K67" s="26"/>
       <c r="L67" s="25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M67" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N67" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O67" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P67" s="30" t="s">
         <v>68</v>
@@ -3519,24 +3517,24 @@
         <v>21</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="J68" s="26"/>
       <c r="K68" s="26"/>
-      <c r="L68" s="35" t="s">
-        <v>61</v>
+      <c r="L68" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="M68" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N68" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O68" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P68" s="30" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -3548,7 +3546,7 @@
         <v>19</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G69" s="21" t="s">
         <v>19</v>
@@ -3565,16 +3563,16 @@
         <v>61</v>
       </c>
       <c r="M69" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N69" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O69" s="26" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="O69" s="29" t="s">
+        <v>95</v>
       </c>
       <c r="P69" s="30" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -3597,22 +3595,22 @@
       <c r="I70" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="26"/>
+      <c r="J70" s="16"/>
       <c r="K70" s="26"/>
-      <c r="L70" s="17" t="s">
-        <v>96</v>
+      <c r="L70" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="M70" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N70" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O70" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="P70" s="31" t="s">
-        <v>38</v>
+        <v>106</v>
+      </c>
+      <c r="O70" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="P70" s="26" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -3624,7 +3622,7 @@
         <v>19</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G71" s="21" t="s">
         <v>19</v>
@@ -3637,20 +3635,20 @@
       </c>
       <c r="J71" s="26"/>
       <c r="K71" s="26"/>
-      <c r="L71" s="5" t="s">
-        <v>45</v>
+      <c r="L71" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="M71" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N71" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O71" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="P71" s="31" t="s">
-        <v>38</v>
+        <v>106</v>
+      </c>
+      <c r="O71" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P71" s="30" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -3671,372 +3669,930 @@
         <v>21</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="J72" s="26"/>
       <c r="K72" s="26"/>
-      <c r="L72" s="25" t="s">
-        <v>91</v>
+      <c r="L72" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="M72" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N72" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O72" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P72" s="30" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" s="34"/>
+        <v>92</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="E73" s="20" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I73" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="25" t="s">
-        <v>104</v>
+      <c r="J73" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="K73" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L73" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="M73" s="26" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="N73" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O73" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="P73" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G74" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="M74" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="N74" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O74" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="P74" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G75" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J75" s="16"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="M75" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="N75" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O75" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="P75" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="M76" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="N76" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O76" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="P76" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="M77" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="N77" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O77" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="P77" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="N78" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O78" s="26"/>
-      <c r="P78" s="30"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F79" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="G79" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H79" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I79" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="N79" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O79" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="P79" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="N80" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="N81" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
-      <c r="M82" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="N82" s="26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
-      <c r="M83" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="N83" s="26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
-      <c r="M84" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="N84" s="26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="M85" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="N85" s="26" t="s">
-        <v>94</v>
-      </c>
-    </row>
+        <v>92</v>
+      </c>
+      <c r="O73" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="P73" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="38"/>
+    </row>
+    <row r="75" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="38"/>
+    </row>
+    <row r="76" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+    </row>
+    <row r="77" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+    </row>
+    <row r="78" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="38"/>
+    </row>
+    <row r="79" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+    </row>
+    <row r="80" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="513" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="514" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="515" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="516" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="517" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="518" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="519" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="520" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="521" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="522" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="523" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="524" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="525" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="526" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="527" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="528" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="529" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="530" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="531" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="532" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="533" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="534" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="535" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="536" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="537" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="538" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="539" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="540" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="541" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="542" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="543" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="544" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="545" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="546" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="547" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="548" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="549" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="550" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="551" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="552" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="553" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="554" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="555" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="556" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="557" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="558" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="559" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="560" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="561" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="562" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="563" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="564" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="565" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="566" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="567" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="568" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="569" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="570" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="571" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="572" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="573" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="574" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="575" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="576" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="577" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="578" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="579" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="580" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="581" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="582" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="583" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="584" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="585" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="586" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="587" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="588" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="589" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="590" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="591" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="592" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="593" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="594" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="595" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="596" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="597" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="598" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="599" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="600" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="601" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="602" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="603" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="604" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="605" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="606" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="607" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="608" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="609" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="610" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="611" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="612" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="613" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="614" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="615" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="616" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="617" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="618" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="619" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="620" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="621" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="622" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="623" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="624" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="625" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="626" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="627" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="628" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="629" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="630" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="631" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="632" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="633" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="634" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="635" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="636" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="637" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="638" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="639" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="640" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="641" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="642" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="643" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="644" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="645" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="646" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="647" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="648" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="649" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="650" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="651" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="652" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="653" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="654" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="655" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="656" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="657" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="658" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="659" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="660" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="661" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="662" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="663" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="664" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="665" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="666" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="667" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="668" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="669" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="670" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="671" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="672" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="673" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="674" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="675" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="676" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="677" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="678" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="679" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="680" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="681" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="682" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="683" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="684" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="685" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="686" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="687" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="688" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="689" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="690" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="691" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="692" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="693" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="694" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="695" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="696" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="697" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="698" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="699" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="700" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="701" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="702" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="703" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="704" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="705" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="706" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="707" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="708" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="709" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="710" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="711" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="712" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="713" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="714" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="715" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="716" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="717" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="718" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="719" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="720" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="721" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="722" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="723" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="724" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="725" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="726" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="727" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="728" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="729" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="730" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="731" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="732" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="733" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="734" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="735" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="736" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="737" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="738" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="739" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="740" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="741" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="742" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="743" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="744" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="745" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="746" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="747" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="748" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="749" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="750" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="751" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="752" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="753" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="754" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="755" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="756" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="757" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="758" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="759" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="760" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="761" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="762" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="763" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="764" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="765" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="766" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="767" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="768" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="769" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="770" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="771" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="772" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="773" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="774" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="775" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="776" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="777" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="778" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="779" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="780" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="781" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="782" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="783" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="784" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="785" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="786" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="787" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="788" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="789" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="790" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="791" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="792" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="793" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="794" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="795" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="796" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="797" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="798" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="799" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="800" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="801" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="802" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="803" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="804" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="805" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="806" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="807" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="808" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="809" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="810" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="811" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="812" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="813" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="814" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="815" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="816" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="817" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="818" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="819" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="820" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="821" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="822" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="823" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="824" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="825" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="826" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="827" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="828" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="829" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="830" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="831" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="832" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="833" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="834" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="835" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="836" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="837" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="838" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="839" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="840" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="841" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="842" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="843" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="844" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="845" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="846" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="847" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="848" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="849" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="850" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="851" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="852" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="853" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="854" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="855" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="856" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="857" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="858" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="859" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="860" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="861" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="862" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="863" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="864" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="865" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="866" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="867" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="868" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="869" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="870" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="871" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="872" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="873" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="874" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="875" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="876" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="877" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="878" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="879" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="880" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="881" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="882" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="883" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="884" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="885" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="886" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="887" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="888" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="889" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="890" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="891" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="892" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="893" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="894" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="895" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="896" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="897" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="898" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="899" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="900" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="901" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
